--- a/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 5,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -4,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-64,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-82,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-79,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-76,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-77,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-91,58; 537,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 75,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 104,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 25,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,02; 33,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-3,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -1,77</t>
+          <t>-9,29; 3,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 9,53</t>
+          <t>-7,98; 5,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 2,0</t>
+          <t>-7,67; 5,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 9,03</t>
+          <t>-16,77; -1,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,34</t>
+          <t>-18,96; -4,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 5,22</t>
+          <t>-16,75; -0,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 1,13</t>
+          <t>-11,28; -1,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 4,28</t>
+          <t>-11,26; -0,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 1,41</t>
+          <t>-9,74; 0,64</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-83,1%</t>
+          <t>-64,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,04%</t>
+          <t>-26,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-66,74%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>-82,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-79,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-55,94%</t>
+          <t>-76,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-77,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-59,57%</t>
+          <t>-52,69%</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,64; 195,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 115,49</t>
+          <t>-91,58; 537,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 75,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 104,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-90,98; 58,41</t>
+          <t>-100,0; 19,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 117,27</t>
+          <t>-100,0; 25,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 64,47</t>
+          <t>-87,02; 33,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,22; 6,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; 9,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; -0,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 18,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 10,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 3,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 8,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,56; 6,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; -0,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,46%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,93; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,68; 276,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,63; 240,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,94; 107,29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 6,19</t>
+          <t>-20,04; -1,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 9,24</t>
+          <t>-13,23; 9,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -0,24</t>
+          <t>-18,0; 2,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 18,11</t>
+          <t>-5,97; 9,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 10,83</t>
+          <t>-8,46; 4,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 3,28</t>
+          <t>-8,17; 5,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 8,29</t>
+          <t>-11,53; 1,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 6,53</t>
+          <t>-9,47; 4,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -0,1</t>
+          <t>-11,0; 1,41</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>-83,1%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-33,61%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-79,99%</t>
+          <t>-66,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>185,09%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-46,24%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>-55,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-9,61%</t>
+          <t>-31,34%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-70,46%</t>
+          <t>-59,57%</t>
         </is>
       </c>
     </row>
@@ -1660,17 +1660,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,64; 195,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 115,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-71,93; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 276,7</t>
+          <t>-90,98; 58,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-80,63; 240,93</t>
+          <t>-84,7; 117,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-94,94; 107,29</t>
+          <t>-100,0; 64,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 15,99</t>
+          <t>-9,86; 14,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 6,58</t>
+          <t>-14,01; 7,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 12,25</t>
+          <t>-12,18; 10,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 0,0</t>
+          <t>-18,03; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 0,0</t>
+          <t>-19,42; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 0,0</t>
+          <t>-17,86; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 6,11</t>
+          <t>-7,94; 5,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 2,18</t>
+          <t>-12,95; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 3,57</t>
+          <t>-11,02; 3,19</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 475,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 3,42</t>
+          <t>-9,41; 2,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 5,45</t>
+          <t>-8,41; 5,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,43</t>
+          <t>-6,71; 6,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -1,09</t>
+          <t>-17,71; -1,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -4,25</t>
+          <t>-20,27; -4,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -0,79</t>
+          <t>-16,91; -0,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -1,1</t>
+          <t>-11,21; -1,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -0,85</t>
+          <t>-11,34; -1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,64</t>
+          <t>-9,84; 1,36</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,58; 537,45</t>
+          <t>-87,55; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 75,84</t>
+          <t>-100,0; 197,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 104,12</t>
+          <t>-100,0; 94,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,29</t>
+          <t>-100,0; 12,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 25,35</t>
+          <t>-100,0; 1,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-87,02; 33,64</t>
+          <t>-84,91; 63,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 6,19</t>
+          <t>-14,12; 6,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 9,24</t>
+          <t>-12,21; 9,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -0,24</t>
+          <t>-17,68; -0,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 18,11</t>
+          <t>-0,79; 19,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 10,83</t>
+          <t>-4,8; 12,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 3,28</t>
+          <t>-9,94; 3,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 8,29</t>
+          <t>-5,32; 9,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 6,53</t>
+          <t>-7,28; 6,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -0,1</t>
+          <t>-11,0; 0,31</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 321,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-71,93; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 276,7</t>
+          <t>-61,06; 321,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-80,63; 240,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,94; 107,29</t>
+          <t>-100,0; 59,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -1,77</t>
+          <t>-20,9; -1,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 9,53</t>
+          <t>-13,49; 9,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 2,0</t>
+          <t>-20,21; 1,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 9,03</t>
+          <t>-5,88; 10,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,34</t>
+          <t>-9,68; 4,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 5,22</t>
+          <t>-8,27; 5,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 1,13</t>
+          <t>-11,67; 1,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 4,28</t>
+          <t>-10,12; 4,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 1,41</t>
+          <t>-11,51; 1,79</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,64; 195,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 115,49</t>
+          <t>-100,0; 119,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-90,98; 58,41</t>
+          <t>-91,13; 74,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 117,27</t>
+          <t>-83,23; 161,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 64,47</t>
+          <t>-100,0; 116,57</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,97</t>
+          <t>-7,8; 1,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 1,96</t>
+          <t>-7,16; 2,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,07</t>
+          <t>-8,72; 0,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 2,86</t>
+          <t>-5,43; 2,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,57</t>
+          <t>-7,76; -0,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -0,79</t>
+          <t>-8,04; -0,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,59</t>
+          <t>-5,54; 0,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,15; -0,17</t>
+          <t>-6,05; -0,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -1,32</t>
+          <t>-7,18; -1,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-81,08; 34,68</t>
+          <t>-78,19; 29,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-75,28; 48,75</t>
+          <t>-71,48; 53,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-83,31; 9,07</t>
+          <t>-82,56; 16,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-69,25; 90,41</t>
+          <t>-70,18; 83,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-93,58; -1,78</t>
+          <t>-92,71; 6,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-93,91; 3,24</t>
+          <t>-93,79; 4,51</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-64,06; 15,17</t>
+          <t>-67,41; 12,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-74,82; -2,17</t>
+          <t>-73,27; 1,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-81,27; -23,99</t>
+          <t>-80,88; -24,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 14,15</t>
+          <t>-8,8; 15,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 7,13</t>
+          <t>-14,2; 6,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 10,71</t>
+          <t>-11,77; 11,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 0,0</t>
+          <t>-17,66; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 0,0</t>
+          <t>-17,82; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 0,0</t>
+          <t>-17,71; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 5,87</t>
+          <t>-8,01; 5,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 1,74</t>
+          <t>-11,35; 2,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 3,19</t>
+          <t>-10,42; 3,93</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 2,05</t>
+          <t>-9,3; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 5,39</t>
+          <t>-8,18; 5,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 6,11</t>
+          <t>-7,21; 5,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,71; -1,03</t>
+          <t>-17,76; -1,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -4,32</t>
+          <t>-19,24; -4,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -0,7</t>
+          <t>-17,45; -0,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -1,48</t>
+          <t>-11,18; -1,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -1,66</t>
+          <t>-11,65; -1,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 1,36</t>
+          <t>-9,73; 1,13</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,55; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 197,65</t>
+          <t>-100,0; 94,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 94,49</t>
+          <t>-100,0; 77,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 12,0</t>
+          <t>-100,0; 0,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,29</t>
+          <t>-100,0; 8,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 63,61</t>
+          <t>-86,55; 48,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 6,56</t>
+          <t>-12,16; 5,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 9,8</t>
+          <t>-12,09; 8,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -0,39</t>
+          <t>-16,47; -0,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 19,62</t>
+          <t>-1,68; 19,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 12,19</t>
+          <t>-5,29; 11,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 3,08</t>
+          <t>-11,17; 2,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 9,11</t>
+          <t>-5,53; 8,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 6,28</t>
+          <t>-7,26; 6,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,31</t>
+          <t>-10,38; 0,47</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 321,2</t>
+          <t>-100,0; 292,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,0; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-61,06; 321,37</t>
+          <t>-59,79; 326,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,49; 268,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 59,09</t>
+          <t>-96,1; 71,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -1,4</t>
+          <t>-20,19; -1,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 9,97</t>
+          <t>-13,07; 10,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 1,29</t>
+          <t>-17,98; 2,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 10,34</t>
+          <t>-6,23; 9,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 4,4</t>
+          <t>-10,64; 4,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 5,36</t>
+          <t>-8,18; 5,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 1,49</t>
+          <t>-11,99; 1,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 4,69</t>
+          <t>-9,63; 4,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 1,79</t>
+          <t>-11,81; 1,71</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,48; 265,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 119,81</t>
+          <t>-100,0; 140,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-91,13; 74,93</t>
+          <t>-90,93; 82,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-83,23; 161,85</t>
+          <t>-82,99; 167,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,57</t>
+          <t>-100,0; 116,99</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,11</t>
+          <t>-7,96; 0,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,42</t>
+          <t>-7,28; 2,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,12</t>
+          <t>-7,97; -0,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,62</t>
+          <t>-5,55; 2,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -0,7</t>
+          <t>-8,5; -0,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -0,54</t>
+          <t>-8,15; -0,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,55</t>
+          <t>-5,65; 0,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,2</t>
+          <t>-6,23; -0,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -1,39</t>
+          <t>-7,12; -1,58</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 29,18</t>
+          <t>-78,17; 42,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 53,78</t>
+          <t>-73,66; 58,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 16,96</t>
+          <t>-79,45; 6,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-70,18; 83,77</t>
+          <t>-69,52; 89,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-92,71; 6,07</t>
+          <t>-93,36; 25,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-93,79; 4,51</t>
+          <t>-92,66; 19,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,41; 12,97</t>
+          <t>-66,49; 15,22</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-73,27; 1,13</t>
+          <t>-74,8; -1,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,88; -24,1</t>
+          <t>-81,18; -21,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A03-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,06; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,88; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,46; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,64; 13,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,98; 5,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,86; 11,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 6,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,82; 1,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 3,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,49%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-3,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 15,73</t>
+          <t>-16,77; -1,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 6,58</t>
+          <t>-18,96; -4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 11,09</t>
+          <t>-16,66; -0,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 0,0</t>
+          <t>-9,29; 3,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 0,0</t>
+          <t>-7,98; 5,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 0,0</t>
+          <t>-7,79; 5,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 5,85</t>
+          <t>-11,28; -1,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 2,11</t>
+          <t>-11,26; -0,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 3,93</t>
+          <t>-9,72; 0,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>-82,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,73%</t>
+          <t>-79,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-64,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-26,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-76,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-70,09%</t>
+          <t>-77,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-61,6%</t>
+          <t>-52,97%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 75,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 104,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,52; 554,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 19,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 25,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,84; 26,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-4,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 3,33</t>
+          <t>-2,32; 18,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,7</t>
+          <t>-6,38; 10,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 5,78</t>
+          <t>-12,0; 2,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,76; -1,13</t>
+          <t>-12,22; 6,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,24; -4,37</t>
+          <t>-12,01; 9,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -0,88</t>
+          <t>-18,13; -0,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,18; -1,08</t>
+          <t>-5,47; 8,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -1,23</t>
+          <t>-7,56; 6,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 1,13</t>
+          <t>-11,41; -0,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-64,11%</t>
+          <t>185,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>55,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>-60,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-82,19%</t>
+          <t>-34,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-33,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-79,85%</t>
+          <t>-80,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-76,55%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-77,45%</t>
+          <t>-9,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-52,69%</t>
+          <t>-75,63%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,93; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 94,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 77,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,9</t>
+          <t>-60,68; 276,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 8,9</t>
+          <t>-80,63; 240,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-86,55; 48,59</t>
+          <t>-96,46; 56,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 5,43</t>
+          <t>-5,97; 9,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 8,7</t>
+          <t>-8,46; 4,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,47; -0,21</t>
+          <t>-8,17; 5,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 19,0</t>
+          <t>-20,04; -1,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 11,78</t>
+          <t>-13,23; 9,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 2,89</t>
+          <t>-18,3; 1,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 8,47</t>
+          <t>-11,53; 1,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 6,79</t>
+          <t>-9,47; 4,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 0,47</t>
+          <t>-11,08; 1,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-33,61%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-79,99%</t>
+          <t>-6,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>185,09%</t>
+          <t>-83,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-46,24%</t>
+          <t>-66,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>-55,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,61%</t>
+          <t>-31,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-70,46%</t>
+          <t>-59,6%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 292,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,39 +1454,39 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,64; 195,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 108,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-59,79; 326,99</t>
+          <t>-90,98; 58,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-81,49; 268,37</t>
+          <t>-84,7; 117,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-96,1; 71,81</t>
+          <t>-100,0; 65,86</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-4,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,19; -1,39</t>
+          <t>-5,81; 2,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 10,35</t>
+          <t>-8,3; -0,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 2,09</t>
+          <t>-8,28; -0,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 9,03</t>
+          <t>-7,95; 0,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 4,39</t>
+          <t>-7,62; 1,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,31</t>
+          <t>-8,5; 0,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 1,51</t>
+          <t>-5,39; 0,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 4,25</t>
+          <t>-6,15; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 1,71</t>
+          <t>-7,04; -1,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-83,1%</t>
+          <t>-23,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-21,04%</t>
+          <t>-67,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-66,74%</t>
+          <t>-71,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>-47,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-54,1%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-55,94%</t>
+          <t>-37,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-48,01%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-59,57%</t>
+          <t>-62,15%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,25; 90,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,48; 265,1</t>
+          <t>-93,58; -1,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 140,09</t>
+          <t>-94,44; -0,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,08; 34,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,28; 48,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,19; 10,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-90,93; 82,4</t>
+          <t>-64,06; 15,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 167,83</t>
+          <t>-74,82; -2,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,99</t>
+          <t>-82,26; -27,05</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-3,43</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 0,89</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 2,59</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; -0,09</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 2,7</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; -0,44</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; -0,47</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 0,61</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; -0,25</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; -1,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-47,16%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-30,72%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-54,45%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-23,2%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-67,84%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-68,49%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-37,17%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-48,01%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-60,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-78,17; 42,36</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-73,66; 58,34</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-79,45; 6,54</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-69,52; 89,61</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-93,36; 25,28</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-92,66; 19,41</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-66,49; 15,22</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-74,8; -1,47</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-81,18; -21,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
